--- a/algorithm/training_set_cleaned.xlsx
+++ b/algorithm/training_set_cleaned.xlsx
@@ -1,72 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingiskaani/Documents/GitHub/ludusengine/algorithm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="5060" yWindow="440" windowWidth="38040" windowHeight="25300" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ruleset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="28">
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Socializer</t>
+  </si>
+  <si>
+    <t>Free Spirit</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Philantropist</t>
+  </si>
+  <si>
+    <t>Achiever</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
   <si>
     <t>Hexad</t>
   </si>
   <si>
-    <t>User skill</t>
-  </si>
-  <si>
-    <t>Chat activity</t>
-  </si>
-  <si>
-    <t>Other skill</t>
-  </si>
-  <si>
-    <t>Challenge ID</t>
-  </si>
-  <si>
-    <t>Other team, unsolved tasks</t>
-  </si>
-  <si>
-    <t>Chat Qs (bool)</t>
+    <t>Userskill</t>
+  </si>
+  <si>
+    <t>Otherskill</t>
+  </si>
+  <si>
+    <t>Otherteam opentasks</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Otherinchat</t>
+  </si>
+  <si>
+    <t>Chatactivity</t>
+  </si>
+  <si>
+    <t>Questionsinchat</t>
+  </si>
+  <si>
+    <t>Ownteam opentasks</t>
+  </si>
+  <si>
+    <t>Ownteamactivity</t>
+  </si>
+  <si>
+    <t>Otherteamactivity</t>
+  </si>
+  <si>
+    <t>Ownteam task age</t>
+  </si>
+  <si>
+    <t>Pointdifference</t>
+  </si>
+  <si>
+    <t>Otherteam task age</t>
+  </si>
+  <si>
+    <t>Ownpoints</t>
+  </si>
+  <si>
+    <t>Hashelped</t>
+  </si>
+  <si>
+    <t>Otherteampoints</t>
+  </si>
+  <si>
+    <t>Challenge_class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,35 +168,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3079" name="Rectangle 7" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -134,7 +280,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -146,7 +292,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -163,9 +309,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,9 +344,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -380,122 +526,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="17" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="R27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+      <c r="R59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P61" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P63" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>14</v>
+      </c>
+      <c r="R66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="R67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="R68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" t="b">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:X70">
+    <sortCondition ref="A2:A70"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>